--- a/Bills/Pramod_Pai_ABNJ.xlsx
+++ b/Bills/Pramod_Pai_ABNJ.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y3"/>
+  <dimension ref="A1:X3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,7 +529,6 @@
     <col width="18" customWidth="1" min="22" max="22"/>
     <col width="18" customWidth="1" min="23" max="23"/>
     <col width="18" customWidth="1" min="24" max="24"/>
-    <col width="18" customWidth="1" min="25" max="25"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -540,122 +539,117 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Working At</t>
+          <t>Employee Code</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Employee Code</t>
+          <t>Employee Name</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Employee Name</t>
+          <t>Billing</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Billing</t>
+          <t>No of days</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>No of days</t>
+          <t>Eligible Days</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Eligible Days</t>
+          <t>No of Saturdays</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>No of Saturdays</t>
+          <t>No of Sundays</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>No of Sundays</t>
+          <t>No of Holidays</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>No of Holidays</t>
+          <t>Total Present</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Total Present</t>
+          <t>Total Working Days</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Total Working Days</t>
+          <t>Absents this Month</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Absents this Month</t>
+          <t>Adjustment of Days</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Adjustment of Days</t>
+          <t>Total Payable Days</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Total Payable Days</t>
+          <t>Total Payable Billing</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Total Payable Billing</t>
+          <t>Charges</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Charges</t>
+          <t>Out of Pocket Exp</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Out of Pocket Exp</t>
+          <t>Arrears</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Arrears</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Grand Total</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
+          <t>Remark</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
           <t>CGST @9%</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>SGST @9%</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>IGST @18%</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Grand Total</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Remark</t>
         </is>
       </c>
     </row>
@@ -667,54 +661,52 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>HDFC Bank</t>
+          <t>AB10081</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>AB10081</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
           <t>AAKASH BOHARA</t>
         </is>
       </c>
+      <c r="D2" s="2" t="n">
+        <v>106920</v>
+      </c>
       <c r="E2" s="2" t="n">
-        <v>106920</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>28</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="H2" s="2" t="n">
         <v>4</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="M2" s="2" t="n">
         <v>2</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>30</v>
+        <v>114557.14</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>114557.14</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="2" t="n">
         <v>0</v>
@@ -723,24 +715,21 @@
         <v>0</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>0</v>
+        <v>114557.14</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>114557.14</v>
+        <v>135177.43</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>10310.14</v>
+        <v/>
       </c>
       <c r="V2" s="2" t="n">
         <v>10310.14</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0</v>
+        <v>10310.14</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>135177.43</v>
-      </c>
-      <c r="Y2" s="2" t="n">
         <v/>
       </c>
     </row>
@@ -752,7 +741,10 @@
       </c>
       <c r="B3" s="3" t="n"/>
       <c r="C3" s="3" t="n"/>
-      <c r="D3" s="3" t="n"/>
+      <c r="D3" s="3">
+        <f>ROUND(SUM(D2:D2), 0)</f>
+        <v/>
+      </c>
       <c r="E3" s="3">
         <f>ROUND(SUM(E2:E2), 0)</f>
         <v/>
@@ -814,26 +806,22 @@
         <v/>
       </c>
       <c r="T3" s="3">
-        <f>ROUND(SUM(T2:T2), 0)</f>
-        <v/>
-      </c>
-      <c r="U3" s="3">
-        <f>CEILING(SUM(U2:U2), 1)</f>
-        <v/>
-      </c>
+        <f>ROUND(SUM(S3), 0)</f>
+        <v/>
+      </c>
+      <c r="U3" s="3" t="n"/>
       <c r="V3" s="3">
         <f>CEILING(SUM(V2:V2), 1)</f>
         <v/>
       </c>
       <c r="W3" s="3">
-        <f>ROUND(SUM(W2:W2), 0)</f>
+        <f>CEILING(SUM(W2:W2), 1)</f>
         <v/>
       </c>
       <c r="X3" s="3">
-        <f>ROUND(SUM(T3,U3,V3,W3), 0)</f>
-        <v/>
-      </c>
-      <c r="Y3" s="3" t="n"/>
+        <f>ROUND(SUM(X2:X2), 0)</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Bills/Pramod_Pai_ABNJ.xlsx
+++ b/Bills/Pramod_Pai_ABNJ.xlsx
@@ -2,22 +2,24 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="120" windowWidth="19140" windowHeight="6840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Annexure" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Annexure" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="145621" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="16">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -26,16 +28,124 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="MS Reference Sans Serif"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color rgb="FF000080"/>
+      <sz val="28"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF000080"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color rgb="FF002060"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="MS Reference Sans Serif"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="0"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color rgb="FF222222"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="10"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color rgb="FF212121"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="10"/>
+    </font>
+    <font>
       <b val="1"/>
       <sz val="10"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -50,7 +160,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -59,29 +169,531 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="5">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="5">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma 2" xfId="1"/>
+    <cellStyle name="Comma 3" xfId="2"/>
+    <cellStyle name="Comma 2 2" xfId="3"/>
+    <cellStyle name="Comma 2 10" xfId="4"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -154,6 +766,99 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <twoCellAnchor editAs="oneCell">
+    <from>
+      <col>0</col>
+      <colOff>69850</colOff>
+      <row>1</row>
+      <rowOff>152400</rowOff>
+    </from>
+    <to>
+      <col>1</col>
+      <colOff>28807</colOff>
+      <row>1</row>
+      <rowOff>688975</rowOff>
+    </to>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Picture 1" descr="CA_logo_icai_small2.jpg"/>
+        <cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </cNvPicPr>
+      </nvPicPr>
+      <blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="69850" y="342900"/>
+          <a:ext cx="759057" cy="536575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </twoCellAnchor>
+  <twoCellAnchor editAs="oneCell">
+    <from>
+      <col>6</col>
+      <colOff>1360715</colOff>
+      <row>44</row>
+      <rowOff>171242</rowOff>
+    </from>
+    <to>
+      <col>7</col>
+      <colOff>1582602</colOff>
+      <row>50</row>
+      <rowOff>38100</rowOff>
+    </to>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="4" name="image3.jpeg"/>
+        <cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </cNvPicPr>
+      </nvPicPr>
+      <blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5651501" y="8934242"/>
+          <a:ext cx="1818458" cy="955429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </twoCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
@@ -283,6 +988,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -317,6 +1023,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -497,6 +1204,557 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:H61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11:H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <cols>
+    <col width="11.453125" customWidth="1" style="65" min="1" max="1"/>
+    <col width="8.36328125" customWidth="1" style="65" min="2" max="2"/>
+    <col width="9.7265625" customWidth="1" style="65" min="3" max="3"/>
+    <col width="14.7265625" customWidth="1" style="65" min="5" max="5"/>
+    <col width="8.54296875" customWidth="1" style="65" min="6" max="6"/>
+    <col width="22.90625" customWidth="1" style="65" min="7" max="7"/>
+    <col width="25.90625" customWidth="1" style="65" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1"/>
+    <row r="2" ht="66.5" customHeight="1" s="65">
+      <c r="A2" s="53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  ABNJ &amp; Co</t>
+        </is>
+      </c>
+      <c r="B2" s="75" t="n"/>
+      <c r="C2" s="75" t="n"/>
+      <c r="D2" s="75" t="n"/>
+      <c r="E2" s="76" t="n"/>
+      <c r="F2" s="52" t="inlineStr">
+        <is>
+          <t>C.A. Ashish Kanodia, F.C.A, DISA (ICAI).             Cell:  9322426322
+C.A. Brij.G.Kalla, B.Com, F.C.A.                             Cell: 9167245281
+C.A. Nilesh Mundada A.C.A.                                 Cell: 9820736037
+C.A. Jay J. Dedhia, A.C.A, C.S.                               Cell: 9987066652</t>
+        </is>
+      </c>
+      <c r="G2" s="75" t="n"/>
+      <c r="H2" s="76" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="51" t="inlineStr">
+        <is>
+          <t>Add:- 1106, Sureshwari Techno IT Park, Eskay Resort, Borivali West Mumbai- 400092</t>
+        </is>
+      </c>
+      <c r="B3" s="75" t="n"/>
+      <c r="C3" s="75" t="n"/>
+      <c r="D3" s="75" t="n"/>
+      <c r="E3" s="75" t="n"/>
+      <c r="F3" s="75" t="n"/>
+      <c r="G3" s="75" t="n"/>
+      <c r="H3" s="76" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="32" t="n"/>
+      <c r="B4" s="49" t="n"/>
+      <c r="C4" s="49" t="n"/>
+      <c r="D4" s="49" t="n"/>
+      <c r="E4" s="49" t="n"/>
+      <c r="F4" s="49" t="n"/>
+      <c r="G4" s="49" t="n"/>
+      <c r="H4" s="50" t="n"/>
+    </row>
+    <row r="5" ht="15.5" customHeight="1" s="65">
+      <c r="A5" s="77" t="inlineStr">
+        <is>
+          <t>Chartered Accountants</t>
+        </is>
+      </c>
+      <c r="H5" s="11" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="78" t="inlineStr">
+        <is>
+          <t>Original For Recepient</t>
+        </is>
+      </c>
+      <c r="B6" s="9" t="n"/>
+      <c r="C6" s="9" t="n"/>
+      <c r="D6" s="9" t="n"/>
+      <c r="E6" s="9" t="n"/>
+      <c r="F6" s="9" t="n"/>
+      <c r="G6" s="9" t="n"/>
+      <c r="H6" s="12" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="79" t="inlineStr">
+        <is>
+          <t>HDFC Bank Ltd</t>
+        </is>
+      </c>
+      <c r="E7" s="11" t="n"/>
+      <c r="F7" s="25" t="inlineStr">
+        <is>
+          <t>Bill No:</t>
+        </is>
+      </c>
+      <c r="G7" s="25" t="n"/>
+      <c r="H7" s="45" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="80" t="inlineStr">
+        <is>
+          <t>1st Floor, HDFC Bank, Zenith House,</t>
+        </is>
+      </c>
+      <c r="E8" s="11" t="n"/>
+      <c r="F8" s="81" t="inlineStr">
+        <is>
+          <t>PAN: AASFA0439K</t>
+        </is>
+      </c>
+      <c r="H8" s="11" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="82" t="inlineStr">
+        <is>
+          <t>Opposite Race Course, Keshavrao Khadye Marg,</t>
+        </is>
+      </c>
+      <c r="E9" s="11" t="n"/>
+      <c r="F9" s="83" t="n"/>
+      <c r="H9" s="11" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="82" t="inlineStr">
+        <is>
+          <t>Arya Nagar, Mahalakshmi,Mumbai 400034</t>
+        </is>
+      </c>
+      <c r="E10" s="11" t="n"/>
+      <c r="F10" s="83" t="n"/>
+      <c r="H10" s="11" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GST NO: </t>
+        </is>
+      </c>
+      <c r="B11" s="16" t="inlineStr">
+        <is>
+          <t>27AAACH2702H1Z0</t>
+        </is>
+      </c>
+      <c r="E11" s="11" t="n"/>
+      <c r="F11" s="83" t="n"/>
+      <c r="H11" s="11" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PAN:   </t>
+        </is>
+      </c>
+      <c r="B12" s="74" t="inlineStr">
+        <is>
+          <t>AAACH2702H</t>
+        </is>
+      </c>
+      <c r="E12" s="11" t="n"/>
+      <c r="F12" s="70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bill Date : </t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>28-02-2026</t>
+        </is>
+      </c>
+      <c r="H12" s="11" t="n"/>
+    </row>
+    <row r="13" s="65">
+      <c r="A13" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kind Attn: </t>
+        </is>
+      </c>
+      <c r="B13" s="16" t="inlineStr">
+        <is>
+          <t>Mr. Pramod Pai</t>
+        </is>
+      </c>
+      <c r="E13" s="11" t="n"/>
+      <c r="F13" s="70" t="inlineStr">
+        <is>
+          <t>Due Date:</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>03-03-2026</t>
+        </is>
+      </c>
+      <c r="H13" s="11" t="n"/>
+    </row>
+    <row r="14" s="65">
+      <c r="A14" s="16" t="n"/>
+      <c r="B14" s="16" t="n"/>
+      <c r="E14" s="11" t="n"/>
+      <c r="F14" s="84" t="inlineStr">
+        <is>
+          <t>SAC Code:  998224 (Other Similar Services n.e.c)</t>
+        </is>
+      </c>
+      <c r="H14" s="11" t="n"/>
+    </row>
+    <row r="15">
+      <c r="E15" s="12" t="n"/>
+      <c r="F15" s="84" t="inlineStr">
+        <is>
+          <t>Place of Service: Lower Parel, Mumbai</t>
+        </is>
+      </c>
+      <c r="H15" s="11" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="18" t="n"/>
+      <c r="B16" s="75" t="n"/>
+      <c r="C16" s="75" t="n"/>
+      <c r="D16" s="75" t="n"/>
+      <c r="E16" s="75" t="n"/>
+      <c r="F16" s="75" t="n"/>
+      <c r="G16" s="75" t="n"/>
+      <c r="H16" s="76" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="40" t="inlineStr">
+        <is>
+          <t>Invoice for support to bank for automation and others, for the period: 01 Feb 2026 to 28 Feb 2026</t>
+        </is>
+      </c>
+      <c r="H17" s="41" t="n">
+        <v>114557</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="67" t="n"/>
+      <c r="H18" s="85" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="67" t="n"/>
+      <c r="H19" s="85" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="67" t="n"/>
+      <c r="H20" s="86" t="n"/>
+    </row>
+    <row r="21" ht="15.5" customHeight="1" s="65">
+      <c r="A21" s="34" t="inlineStr">
+        <is>
+          <t>Add : CGST @ 9%</t>
+        </is>
+      </c>
+      <c r="B21" s="75" t="n"/>
+      <c r="C21" s="75" t="n"/>
+      <c r="D21" s="75" t="n"/>
+      <c r="E21" s="75" t="n"/>
+      <c r="F21" s="75" t="n"/>
+      <c r="G21" s="76" t="n"/>
+      <c r="H21" s="87" t="n">
+        <v>10310</v>
+      </c>
+    </row>
+    <row r="22" ht="15.5" customHeight="1" s="65">
+      <c r="A22" s="34" t="inlineStr">
+        <is>
+          <t>Add : SGST @ 9%</t>
+        </is>
+      </c>
+      <c r="B22" s="75" t="n"/>
+      <c r="C22" s="75" t="n"/>
+      <c r="D22" s="75" t="n"/>
+      <c r="E22" s="75" t="n"/>
+      <c r="F22" s="75" t="n"/>
+      <c r="G22" s="76" t="n"/>
+      <c r="H22" s="87" t="n">
+        <v>10310</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="G23" s="22" t="n"/>
+      <c r="H23" s="88" t="n">
+        <v>135177</v>
+      </c>
+    </row>
+    <row r="24" ht="14.5" customHeight="1" s="65">
+      <c r="A24" s="38" t="inlineStr">
+        <is>
+          <t>Rupees:</t>
+        </is>
+      </c>
+      <c r="B24" s="39" t="inlineStr">
+        <is>
+          <t>One Lakh, Thirty-Five Thousand, One Hundred And Seventy-Seven Only</t>
+        </is>
+      </c>
+      <c r="G24" s="11" t="n"/>
+      <c r="H24" s="11" t="n"/>
+    </row>
+    <row r="25" ht="15.5" customHeight="1" s="65">
+      <c r="A25" s="9" t="n"/>
+      <c r="B25" s="9" t="n"/>
+      <c r="C25" s="9" t="n"/>
+      <c r="D25" s="9" t="n"/>
+      <c r="E25" s="9" t="n"/>
+      <c r="F25" s="9" t="n"/>
+      <c r="G25" s="12" t="n"/>
+      <c r="H25" s="12" t="n"/>
+    </row>
+    <row r="26" ht="14.5" customHeight="1" s="65">
+      <c r="H26" s="22" t="n"/>
+    </row>
+    <row r="27">
+      <c r="H27" s="11" t="n"/>
+    </row>
+    <row r="28">
+      <c r="H28" s="11" t="n"/>
+    </row>
+    <row r="29">
+      <c r="H29" s="11" t="n"/>
+    </row>
+    <row r="30">
+      <c r="H30" s="11" t="n"/>
+    </row>
+    <row r="31" ht="15" customHeight="1" s="65" thickBot="1">
+      <c r="H31" s="11" t="n"/>
+    </row>
+    <row r="32" ht="15" customHeight="1" s="65" thickBot="1">
+      <c r="A32" s="89" t="inlineStr">
+        <is>
+          <t>Bank Details:</t>
+        </is>
+      </c>
+      <c r="B32" s="90" t="n"/>
+      <c r="C32" s="91" t="n"/>
+      <c r="H32" s="11" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="67" t="inlineStr">
+        <is>
+          <t>Name:</t>
+        </is>
+      </c>
+      <c r="B33" s="58" t="inlineStr">
+        <is>
+          <t>ABNJ &amp; Co.</t>
+        </is>
+      </c>
+      <c r="C33" s="92" t="n"/>
+      <c r="H33" s="11" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="67" t="inlineStr">
+        <is>
+          <t>Bank Name:</t>
+        </is>
+      </c>
+      <c r="B34" s="58" t="inlineStr">
+        <is>
+          <t>HDFC BANK</t>
+        </is>
+      </c>
+      <c r="C34" s="92" t="n"/>
+      <c r="H34" s="11" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="67" t="inlineStr">
+        <is>
+          <t>A/c No.:</t>
+        </is>
+      </c>
+      <c r="B35" s="93" t="inlineStr">
+        <is>
+          <t>09977630000701</t>
+        </is>
+      </c>
+      <c r="C35" s="92" t="n"/>
+      <c r="H35" s="11" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="67" t="inlineStr">
+        <is>
+          <t>IFSC Code:</t>
+        </is>
+      </c>
+      <c r="B36" s="58" t="inlineStr">
+        <is>
+          <t>HDFC0000997</t>
+        </is>
+      </c>
+      <c r="C36" s="92" t="n"/>
+      <c r="H36" s="11" t="n"/>
+    </row>
+    <row r="37" ht="15" customHeight="1" s="65" thickBot="1">
+      <c r="A37" s="66" t="inlineStr">
+        <is>
+          <t>MICR No:</t>
+        </is>
+      </c>
+      <c r="B37" s="55" t="n">
+        <v>400240100</v>
+      </c>
+      <c r="C37" s="94" t="n"/>
+      <c r="H37" s="11" t="n"/>
+    </row>
+    <row r="38">
+      <c r="H38" s="11" t="n"/>
+    </row>
+    <row r="39">
+      <c r="H39" s="11" t="n"/>
+    </row>
+    <row r="40">
+      <c r="H40" s="11" t="n"/>
+    </row>
+    <row r="41">
+      <c r="H41" s="11" t="n"/>
+    </row>
+    <row r="42">
+      <c r="H42" s="11" t="n"/>
+    </row>
+    <row r="43" ht="15.5" customHeight="1" s="65">
+      <c r="H43" s="36" t="inlineStr">
+        <is>
+          <t>For ABNJ &amp; Co.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="H44" s="11" t="n"/>
+    </row>
+    <row r="45">
+      <c r="H45" s="11" t="n"/>
+    </row>
+    <row r="46">
+      <c r="H46" s="11" t="n"/>
+    </row>
+    <row r="47">
+      <c r="H47" s="11" t="n"/>
+    </row>
+    <row r="48">
+      <c r="H48" s="11" t="n"/>
+    </row>
+    <row r="49">
+      <c r="H49" s="11" t="n"/>
+    </row>
+    <row r="50">
+      <c r="H50" s="11" t="n"/>
+    </row>
+    <row r="51">
+      <c r="H51" s="63" t="inlineStr">
+        <is>
+          <t>Authorized Signatory</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="H52" s="11" t="n"/>
+    </row>
+    <row r="53">
+      <c r="H53" s="11" t="n"/>
+    </row>
+    <row r="54">
+      <c r="H54" s="11" t="n"/>
+    </row>
+    <row r="55">
+      <c r="H55" s="11" t="n"/>
+    </row>
+    <row r="56">
+      <c r="H56" s="11" t="n"/>
+    </row>
+    <row r="57">
+      <c r="H57" s="11" t="n"/>
+    </row>
+    <row r="58" ht="15.5" customHeight="1" s="65">
+      <c r="A58" s="68" t="inlineStr">
+        <is>
+          <t>●    Early Remittance is Solicited.</t>
+        </is>
+      </c>
+      <c r="H58" s="11" t="n"/>
+    </row>
+    <row r="59" ht="15.5" customHeight="1" s="65">
+      <c r="A59" s="69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  ●   GST No.27AASFA0439K3Z4 ;  SAC Code – 998224;Category: Accounting , Auditing And Bookkeeping Services </t>
+        </is>
+      </c>
+      <c r="H59" s="11" t="n"/>
+    </row>
+    <row r="60" ht="15.5" customHeight="1" s="65">
+      <c r="A60" s="69" t="inlineStr">
+        <is>
+          <t>Sub Category : Other similar Services n.e.c.</t>
+        </is>
+      </c>
+      <c r="H60" s="11" t="n"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="9" t="n"/>
+      <c r="B61" s="9" t="n"/>
+      <c r="C61" s="9" t="n"/>
+      <c r="D61" s="9" t="n"/>
+      <c r="E61" s="9" t="n"/>
+      <c r="F61" s="9" t="n"/>
+      <c r="G61" s="9" t="n"/>
+      <c r="H61" s="12" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="H17:H20"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A17:G20"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="A9:E9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:X3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -505,320 +1763,320 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="18" customWidth="1" min="1" max="1"/>
-    <col width="18" customWidth="1" min="2" max="2"/>
-    <col width="18" customWidth="1" min="3" max="3"/>
-    <col width="18" customWidth="1" min="4" max="4"/>
-    <col width="18" customWidth="1" min="5" max="5"/>
-    <col width="18" customWidth="1" min="6" max="6"/>
-    <col width="18" customWidth="1" min="7" max="7"/>
-    <col width="18" customWidth="1" min="8" max="8"/>
-    <col width="18" customWidth="1" min="9" max="9"/>
-    <col width="18" customWidth="1" min="10" max="10"/>
-    <col width="18" customWidth="1" min="11" max="11"/>
-    <col width="18" customWidth="1" min="12" max="12"/>
-    <col width="18" customWidth="1" min="13" max="13"/>
-    <col width="18" customWidth="1" min="14" max="14"/>
-    <col width="18" customWidth="1" min="15" max="15"/>
-    <col width="18" customWidth="1" min="16" max="16"/>
-    <col width="18" customWidth="1" min="17" max="17"/>
-    <col width="18" customWidth="1" min="18" max="18"/>
-    <col width="18" customWidth="1" min="19" max="19"/>
-    <col width="18" customWidth="1" min="20" max="20"/>
-    <col width="18" customWidth="1" min="21" max="21"/>
-    <col width="18" customWidth="1" min="22" max="22"/>
-    <col width="18" customWidth="1" min="23" max="23"/>
-    <col width="18" customWidth="1" min="24" max="24"/>
+    <col width="18" customWidth="1" style="65" min="1" max="1"/>
+    <col width="18" customWidth="1" style="65" min="2" max="2"/>
+    <col width="18" customWidth="1" style="65" min="3" max="3"/>
+    <col width="18" customWidth="1" style="65" min="4" max="4"/>
+    <col width="18" customWidth="1" style="65" min="5" max="5"/>
+    <col width="18" customWidth="1" style="65" min="6" max="6"/>
+    <col width="18" customWidth="1" style="65" min="7" max="7"/>
+    <col width="18" customWidth="1" style="65" min="8" max="8"/>
+    <col width="18" customWidth="1" style="65" min="9" max="9"/>
+    <col width="18" customWidth="1" style="65" min="10" max="10"/>
+    <col width="18" customWidth="1" style="65" min="11" max="11"/>
+    <col width="18" customWidth="1" style="65" min="12" max="12"/>
+    <col width="18" customWidth="1" style="65" min="13" max="13"/>
+    <col width="18" customWidth="1" style="65" min="14" max="14"/>
+    <col width="18" customWidth="1" style="65" min="15" max="15"/>
+    <col width="18" customWidth="1" style="65" min="16" max="16"/>
+    <col width="18" customWidth="1" style="65" min="17" max="17"/>
+    <col width="18" customWidth="1" style="65" min="18" max="18"/>
+    <col width="18" customWidth="1" style="65" min="19" max="19"/>
+    <col width="18" customWidth="1" style="65" min="20" max="20"/>
+    <col width="18" customWidth="1" style="65" min="21" max="21"/>
+    <col width="18" customWidth="1" style="65" min="22" max="22"/>
+    <col width="18" customWidth="1" style="65" min="23" max="23"/>
+    <col width="18" customWidth="1" style="65" min="24" max="24"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
+    <row r="1" ht="30" customHeight="1" s="65">
+      <c r="A1" s="95" t="inlineStr">
         <is>
           <t>Kind Attention Person</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="95" t="inlineStr">
         <is>
           <t>Employee Code</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="95" t="inlineStr">
         <is>
           <t>Employee Name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="95" t="inlineStr">
         <is>
           <t>Billing</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="95" t="inlineStr">
         <is>
           <t>No of days</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="95" t="inlineStr">
         <is>
           <t>Eligible Days</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="95" t="inlineStr">
         <is>
           <t>No of Saturdays</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="95" t="inlineStr">
         <is>
           <t>No of Sundays</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="95" t="inlineStr">
         <is>
           <t>No of Holidays</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="95" t="inlineStr">
         <is>
           <t>Total Present</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="95" t="inlineStr">
         <is>
           <t>Total Working Days</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="95" t="inlineStr">
         <is>
           <t>Absents this Month</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="95" t="inlineStr">
         <is>
           <t>Adjustment of Days</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="95" t="inlineStr">
         <is>
           <t>Total Payable Days</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" s="95" t="inlineStr">
         <is>
           <t>Total Payable Billing</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" s="95" t="inlineStr">
         <is>
           <t>Charges</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" s="95" t="inlineStr">
         <is>
           <t>Out of Pocket Exp</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" s="95" t="inlineStr">
         <is>
           <t>Arrears</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" s="95" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" s="95" t="inlineStr">
         <is>
           <t>Grand Total</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" s="95" t="inlineStr">
         <is>
           <t>Remark</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" s="95" t="inlineStr">
         <is>
           <t>CGST @9%</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" s="95" t="inlineStr">
         <is>
           <t>SGST @9%</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" s="95" t="inlineStr">
         <is>
           <t>IGST @18%</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="96" t="inlineStr">
         <is>
           <t>Pramod Pai</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="96" t="inlineStr">
         <is>
           <t>AB10081</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="96" t="inlineStr">
         <is>
           <t>AAKASH BOHARA</t>
         </is>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="96" t="n">
         <v>106920</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="96" t="n">
         <v>28</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="F2" s="96" t="n">
         <v>28</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="G2" s="96" t="n">
         <v>4</v>
       </c>
-      <c r="H2" s="2" t="n">
+      <c r="H2" s="96" t="n">
         <v>4</v>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="I2" s="96" t="n">
         <v>1</v>
       </c>
-      <c r="J2" s="2" t="n">
+      <c r="J2" s="96" t="n">
         <v>19</v>
       </c>
-      <c r="K2" s="2" t="n">
+      <c r="K2" s="96" t="n">
         <v>28</v>
       </c>
-      <c r="L2" s="2" t="n">
+      <c r="L2" s="96" t="n">
         <v>2</v>
       </c>
-      <c r="M2" s="2" t="n">
+      <c r="M2" s="96" t="n">
         <v>2</v>
       </c>
-      <c r="N2" s="2" t="n">
+      <c r="N2" s="96" t="n">
         <v>30</v>
       </c>
-      <c r="O2" s="2" t="n">
+      <c r="O2" s="96" t="n">
         <v>114557.14</v>
       </c>
-      <c r="P2" s="2" t="n">
+      <c r="P2" s="96" t="n">
         <v>0</v>
       </c>
-      <c r="Q2" s="2" t="n">
+      <c r="Q2" s="96" t="n">
         <v>0</v>
       </c>
-      <c r="R2" s="2" t="n">
+      <c r="R2" s="96" t="n">
         <v>0</v>
       </c>
-      <c r="S2" s="2" t="n">
+      <c r="S2" s="96" t="n">
         <v>114557.14</v>
       </c>
-      <c r="T2" s="2" t="n">
+      <c r="T2" s="96" t="n">
         <v>135177.43</v>
       </c>
-      <c r="U2" s="2" t="n">
-        <v/>
-      </c>
-      <c r="V2" s="2" t="n">
+      <c r="U2" s="96" t="n">
+        <v/>
+      </c>
+      <c r="V2" s="96" t="n">
         <v>10310.14</v>
       </c>
-      <c r="W2" s="2" t="n">
+      <c r="W2" s="96" t="n">
         <v>10310.14</v>
       </c>
-      <c r="X2" s="2" t="n">
+      <c r="X2" s="96" t="n">
         <v/>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="A3" s="97" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B3" s="3" t="n"/>
-      <c r="C3" s="3" t="n"/>
-      <c r="D3" s="3">
+      <c r="B3" s="97" t="n"/>
+      <c r="C3" s="97" t="n"/>
+      <c r="D3" s="97">
         <f>ROUND(SUM(D2:D2), 0)</f>
         <v/>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="97">
         <f>ROUND(SUM(E2:E2), 0)</f>
         <v/>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="97">
         <f>ROUND(SUM(F2:F2), 0)</f>
         <v/>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="97">
         <f>ROUND(SUM(G2:G2), 0)</f>
         <v/>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="97">
         <f>ROUND(SUM(H2:H2), 0)</f>
         <v/>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="97">
         <f>ROUND(SUM(I2:I2), 0)</f>
         <v/>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="97">
         <f>ROUND(SUM(J2:J2), 0)</f>
         <v/>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="97">
         <f>ROUND(SUM(K2:K2), 0)</f>
         <v/>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="97">
         <f>ROUND(SUM(L2:L2), 0)</f>
         <v/>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="97">
         <f>ROUND(SUM(M2:M2), 0)</f>
         <v/>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="97">
         <f>ROUND(SUM(N2:N2), 0)</f>
         <v/>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="97">
         <f>ROUND(SUM(O2:O2), 0)</f>
         <v/>
       </c>
-      <c r="P3" s="3">
+      <c r="P3" s="97">
         <f>ROUND(SUM(P2:P2), 0)</f>
         <v/>
       </c>
-      <c r="Q3" s="3">
+      <c r="Q3" s="97">
         <f>ROUND(SUM(Q2:Q2), 0)</f>
         <v/>
       </c>
-      <c r="R3" s="3">
+      <c r="R3" s="97">
         <f>ROUND(SUM(R2:R2), 0)</f>
         <v/>
       </c>
-      <c r="S3" s="3">
+      <c r="S3" s="97">
         <f>ROUND(SUM(S2:S2), 0)</f>
         <v/>
       </c>
-      <c r="T3" s="3">
+      <c r="T3" s="97">
         <f>ROUND(SUM(S3), 0)</f>
         <v/>
       </c>
-      <c r="U3" s="3" t="n"/>
-      <c r="V3" s="3">
+      <c r="U3" s="97" t="n"/>
+      <c r="V3" s="97">
         <f>CEILING(SUM(V2:V2), 1)</f>
         <v/>
       </c>
-      <c r="W3" s="3">
+      <c r="W3" s="97">
         <f>CEILING(SUM(W2:W2), 1)</f>
         <v/>
       </c>
-      <c r="X3" s="3">
+      <c r="X3" s="97">
         <f>ROUND(SUM(X2:X2), 0)</f>
         <v/>
       </c>

--- a/Bills/Pramod_Pai_ABNJ.xlsx
+++ b/Bills/Pramod_Pai_ABNJ.xlsx
@@ -472,7 +472,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -682,7 +682,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="27" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="4" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1466,7 +1470,7 @@
       <c r="F21" s="75" t="n"/>
       <c r="G21" s="76" t="n"/>
       <c r="H21" s="87" t="n">
-        <v>10310</v>
+        <v>10311</v>
       </c>
     </row>
     <row r="22" ht="15.5" customHeight="1" s="65">
@@ -1482,13 +1486,13 @@
       <c r="F22" s="75" t="n"/>
       <c r="G22" s="76" t="n"/>
       <c r="H22" s="87" t="n">
-        <v>10310</v>
+        <v>10311</v>
       </c>
     </row>
     <row r="23">
       <c r="G23" s="22" t="n"/>
       <c r="H23" s="88" t="n">
-        <v>135177</v>
+        <v>135179</v>
       </c>
     </row>
     <row r="24" ht="14.5" customHeight="1" s="65">
@@ -1499,7 +1503,7 @@
       </c>
       <c r="B24" s="39" t="inlineStr">
         <is>
-          <t>One Lakh, Thirty-Five Thousand, One Hundred And Seventy-Seven Only</t>
+          <t>One Lakh, Thirty-Five Thousand, One Hundred And Seventy-Nine Only</t>
         </is>
       </c>
       <c r="G24" s="11" t="n"/>
@@ -1755,7 +1759,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X3"/>
+  <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1786,7 +1790,6 @@
     <col width="18" customWidth="1" style="65" min="21" max="21"/>
     <col width="18" customWidth="1" style="65" min="22" max="22"/>
     <col width="18" customWidth="1" style="65" min="23" max="23"/>
-    <col width="18" customWidth="1" style="65" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1" s="65">
@@ -1887,27 +1890,22 @@
       </c>
       <c r="T1" s="95" t="inlineStr">
         <is>
+          <t>CGST @9%</t>
+        </is>
+      </c>
+      <c r="U1" s="95" t="inlineStr">
+        <is>
+          <t>SGST @9%</t>
+        </is>
+      </c>
+      <c r="V1" s="95" t="inlineStr">
+        <is>
           <t>Grand Total</t>
         </is>
       </c>
-      <c r="U1" s="95" t="inlineStr">
+      <c r="W1" s="95" t="inlineStr">
         <is>
           <t>Remark</t>
-        </is>
-      </c>
-      <c r="V1" s="95" t="inlineStr">
-        <is>
-          <t>CGST @9%</t>
-        </is>
-      </c>
-      <c r="W1" s="95" t="inlineStr">
-        <is>
-          <t>SGST @9%</t>
-        </is>
-      </c>
-      <c r="X1" s="95" t="inlineStr">
-        <is>
-          <t>IGST @18%</t>
         </is>
       </c>
     </row>
@@ -1927,159 +1925,152 @@
           <t>AAKASH BOHARA</t>
         </is>
       </c>
-      <c r="D2" s="96" t="n">
+      <c r="D2" s="97" t="n">
         <v>106920</v>
       </c>
-      <c r="E2" s="96" t="n">
+      <c r="E2" s="97" t="n">
         <v>28</v>
       </c>
-      <c r="F2" s="96" t="n">
+      <c r="F2" s="97" t="n">
         <v>28</v>
       </c>
-      <c r="G2" s="96" t="n">
+      <c r="G2" s="97" t="n">
         <v>4</v>
       </c>
-      <c r="H2" s="96" t="n">
+      <c r="H2" s="97" t="n">
         <v>4</v>
       </c>
-      <c r="I2" s="96" t="n">
+      <c r="I2" s="97" t="n">
         <v>1</v>
       </c>
-      <c r="J2" s="96" t="n">
+      <c r="J2" s="97" t="n">
         <v>19</v>
       </c>
-      <c r="K2" s="96" t="n">
+      <c r="K2" s="97" t="n">
         <v>28</v>
       </c>
-      <c r="L2" s="96" t="n">
+      <c r="L2" s="97" t="n">
         <v>2</v>
       </c>
-      <c r="M2" s="96" t="n">
+      <c r="M2" s="97" t="n">
         <v>2</v>
       </c>
-      <c r="N2" s="96" t="n">
+      <c r="N2" s="97" t="n">
         <v>30</v>
       </c>
-      <c r="O2" s="96" t="n">
+      <c r="O2" s="97" t="n">
         <v>114557.14</v>
       </c>
-      <c r="P2" s="96" t="n">
+      <c r="P2" s="97" t="n">
         <v>0</v>
       </c>
-      <c r="Q2" s="96" t="n">
+      <c r="Q2" s="97" t="n">
         <v>0</v>
       </c>
-      <c r="R2" s="96" t="n">
+      <c r="R2" s="97" t="n">
         <v>0</v>
       </c>
-      <c r="S2" s="96" t="n">
+      <c r="S2" s="97" t="n">
         <v>114557.14</v>
       </c>
-      <c r="T2" s="96" t="n">
+      <c r="T2" s="97" t="n">
+        <v>10310.14</v>
+      </c>
+      <c r="U2" s="97" t="n">
+        <v>10310.14</v>
+      </c>
+      <c r="V2" s="97" t="n">
         <v>135177.43</v>
       </c>
-      <c r="U2" s="96" t="n">
+      <c r="W2" s="96" t="n">
         <v/>
       </c>
-      <c r="V2" s="96" t="n">
-        <v>10310.14</v>
-      </c>
-      <c r="W2" s="96" t="n">
-        <v>10310.14</v>
-      </c>
-      <c r="X2" s="96" t="n">
-        <v/>
-      </c>
     </row>
     <row r="3">
-      <c r="A3" s="97" t="inlineStr">
+      <c r="A3" s="98" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B3" s="97" t="n"/>
-      <c r="C3" s="97" t="n"/>
-      <c r="D3" s="97">
+      <c r="B3" s="98" t="n"/>
+      <c r="C3" s="98" t="n"/>
+      <c r="D3" s="99">
         <f>ROUND(SUM(D2:D2), 0)</f>
         <v/>
       </c>
-      <c r="E3" s="97">
+      <c r="E3" s="99">
         <f>ROUND(SUM(E2:E2), 0)</f>
         <v/>
       </c>
-      <c r="F3" s="97">
+      <c r="F3" s="99">
         <f>ROUND(SUM(F2:F2), 0)</f>
         <v/>
       </c>
-      <c r="G3" s="97">
+      <c r="G3" s="99">
         <f>ROUND(SUM(G2:G2), 0)</f>
         <v/>
       </c>
-      <c r="H3" s="97">
+      <c r="H3" s="99">
         <f>ROUND(SUM(H2:H2), 0)</f>
         <v/>
       </c>
-      <c r="I3" s="97">
+      <c r="I3" s="99">
         <f>ROUND(SUM(I2:I2), 0)</f>
         <v/>
       </c>
-      <c r="J3" s="97">
+      <c r="J3" s="99">
         <f>ROUND(SUM(J2:J2), 0)</f>
         <v/>
       </c>
-      <c r="K3" s="97">
+      <c r="K3" s="99">
         <f>ROUND(SUM(K2:K2), 0)</f>
         <v/>
       </c>
-      <c r="L3" s="97">
+      <c r="L3" s="99">
         <f>ROUND(SUM(L2:L2), 0)</f>
         <v/>
       </c>
-      <c r="M3" s="97">
+      <c r="M3" s="99">
         <f>ROUND(SUM(M2:M2), 0)</f>
         <v/>
       </c>
-      <c r="N3" s="97">
+      <c r="N3" s="99">
         <f>ROUND(SUM(N2:N2), 0)</f>
         <v/>
       </c>
-      <c r="O3" s="97">
+      <c r="O3" s="99">
         <f>ROUND(SUM(O2:O2), 0)</f>
         <v/>
       </c>
-      <c r="P3" s="97">
+      <c r="P3" s="99">
         <f>ROUND(SUM(P2:P2), 0)</f>
         <v/>
       </c>
-      <c r="Q3" s="97">
+      <c r="Q3" s="99">
         <f>ROUND(SUM(Q2:Q2), 0)</f>
         <v/>
       </c>
-      <c r="R3" s="97">
+      <c r="R3" s="99">
         <f>ROUND(SUM(R2:R2), 0)</f>
         <v/>
       </c>
-      <c r="S3" s="97">
+      <c r="S3" s="99">
         <f>ROUND(SUM(S2:S2), 0)</f>
         <v/>
       </c>
-      <c r="T3" s="97">
-        <f>ROUND(SUM(S3), 0)</f>
+      <c r="T3" s="99">
+        <f>CEILING(SUM(T2:T2), 1)</f>
         <v/>
       </c>
-      <c r="U3" s="97" t="n"/>
-      <c r="V3" s="97">
-        <f>CEILING(SUM(V2:V2), 1)</f>
+      <c r="U3" s="99">
+        <f>CEILING(SUM(U2:U2), 1)</f>
         <v/>
       </c>
-      <c r="W3" s="97">
-        <f>CEILING(SUM(W2:W2), 1)</f>
+      <c r="V3" s="99">
+        <f>ROUND(SUM(S3,T3,U3), 0)</f>
         <v/>
       </c>
-      <c r="X3" s="97">
-        <f>ROUND(SUM(X2:X2), 0)</f>
-        <v/>
-      </c>
+      <c r="W3" s="98" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
